--- a/10_Driver_monitoring_system/Driver_monitoring_system_cam/exe/deeppose_cam/deeppose_cam_summary.xlsx
+++ b/10_Driver_monitoring_system/Driver_monitoring_system_cam/exe/deeppose_cam/deeppose_cam_summary.xlsx
@@ -891,7 +891,7 @@
         <v>256</v>
       </c>
       <c r="S7" t="n">
-        <v>1113</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>52968</v>
+        <v>52265</v>
       </c>
     </row>
     <row r="83">
